--- a/data/pca/factorExposure/factorExposure_2012-04-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-04.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01604136459118491</v>
+        <v>-0.01646220410260023</v>
       </c>
       <c r="C2">
-        <v>-0.03513204114682977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0291844272976309</v>
+      </c>
+      <c r="D2">
+        <v>-0.0008072930422651559</v>
+      </c>
+      <c r="E2">
+        <v>-0.009565695840193626</v>
+      </c>
+      <c r="F2">
+        <v>0.007245629514861534</v>
+      </c>
+      <c r="G2">
+        <v>-0.005869137602549705</v>
+      </c>
+      <c r="H2">
+        <v>-0.05940162318269578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07510727150239567</v>
+        <v>-0.08829298857407301</v>
       </c>
       <c r="C4">
-        <v>-0.05489576041767744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03844509785424328</v>
+      </c>
+      <c r="D4">
+        <v>-0.06586252493071336</v>
+      </c>
+      <c r="E4">
+        <v>-0.01542593995146622</v>
+      </c>
+      <c r="F4">
+        <v>0.02999216966634263</v>
+      </c>
+      <c r="G4">
+        <v>-0.007216424208131589</v>
+      </c>
+      <c r="H4">
+        <v>0.04414302121191888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1069629846959758</v>
+        <v>-0.1190161452235303</v>
       </c>
       <c r="C6">
-        <v>-0.05583048997352889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03320865764034842</v>
+      </c>
+      <c r="D6">
+        <v>-0.009770732174603856</v>
+      </c>
+      <c r="E6">
+        <v>0.007348917689964572</v>
+      </c>
+      <c r="F6">
+        <v>0.06135618240765934</v>
+      </c>
+      <c r="G6">
+        <v>-0.02486992294977263</v>
+      </c>
+      <c r="H6">
+        <v>-0.1033049048020633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04947451442639143</v>
+        <v>-0.06466747402926415</v>
       </c>
       <c r="C7">
-        <v>-0.02733313396132429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01882876904603713</v>
+      </c>
+      <c r="D7">
+        <v>-0.04559340802258707</v>
+      </c>
+      <c r="E7">
+        <v>-0.03802218585460803</v>
+      </c>
+      <c r="F7">
+        <v>0.03529748612500036</v>
+      </c>
+      <c r="G7">
+        <v>0.04024620245651213</v>
+      </c>
+      <c r="H7">
+        <v>0.02291613275448593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03613730898664193</v>
+        <v>-0.04066512431822947</v>
       </c>
       <c r="C8">
-        <v>-0.01176836988521177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007749753846332049</v>
+      </c>
+      <c r="D8">
+        <v>-0.02266920039024299</v>
+      </c>
+      <c r="E8">
+        <v>-0.03289546157318557</v>
+      </c>
+      <c r="F8">
+        <v>0.04882329432269076</v>
+      </c>
+      <c r="G8">
+        <v>-0.0408177197004467</v>
+      </c>
+      <c r="H8">
+        <v>0.005157573457484568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06783959129518922</v>
+        <v>-0.07960003333828172</v>
       </c>
       <c r="C9">
-        <v>-0.04520338513427639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02925517945646593</v>
+      </c>
+      <c r="D9">
+        <v>-0.06288552101636394</v>
+      </c>
+      <c r="E9">
+        <v>-0.03711686096901076</v>
+      </c>
+      <c r="F9">
+        <v>0.03231390839524757</v>
+      </c>
+      <c r="G9">
+        <v>-0.01002383388878321</v>
+      </c>
+      <c r="H9">
+        <v>0.0562935428106297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02952475301375187</v>
+        <v>-0.03547062978414732</v>
       </c>
       <c r="C10">
-        <v>-0.034974793651849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04196517726421001</v>
+      </c>
+      <c r="D10">
+        <v>0.1712694657999882</v>
+      </c>
+      <c r="E10">
+        <v>-0.05376880841715072</v>
+      </c>
+      <c r="F10">
+        <v>0.04183949770109355</v>
+      </c>
+      <c r="G10">
+        <v>0.04058876837931216</v>
+      </c>
+      <c r="H10">
+        <v>-0.0370813850610966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0706457918918004</v>
+        <v>-0.07664332818374123</v>
       </c>
       <c r="C11">
-        <v>-0.04736390033653897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02691590171387727</v>
+      </c>
+      <c r="D11">
+        <v>-0.06215833558012892</v>
+      </c>
+      <c r="E11">
+        <v>0.003261287203979476</v>
+      </c>
+      <c r="F11">
+        <v>0.0268485655629524</v>
+      </c>
+      <c r="G11">
+        <v>0.001070679516661186</v>
+      </c>
+      <c r="H11">
+        <v>0.1055740686513313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05696583587794179</v>
+        <v>-0.06658675076322394</v>
       </c>
       <c r="C12">
-        <v>-0.05123716823994726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03547976952268417</v>
+      </c>
+      <c r="D12">
+        <v>-0.04961988930104307</v>
+      </c>
+      <c r="E12">
+        <v>-0.0142663658320832</v>
+      </c>
+      <c r="F12">
+        <v>0.01695347397059422</v>
+      </c>
+      <c r="G12">
+        <v>5.383036378698012e-06</v>
+      </c>
+      <c r="H12">
+        <v>0.05802963631515254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05892533952732575</v>
+        <v>-0.06520271098404555</v>
       </c>
       <c r="C13">
-        <v>-0.0412396629083434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02575882231392595</v>
+      </c>
+      <c r="D13">
+        <v>-0.04231951661870587</v>
+      </c>
+      <c r="E13">
+        <v>-0.01423939884973376</v>
+      </c>
+      <c r="F13">
+        <v>0.003923178185515455</v>
+      </c>
+      <c r="G13">
+        <v>0.0007154677624765266</v>
+      </c>
+      <c r="H13">
+        <v>0.0545142632033075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03324606001322396</v>
+        <v>-0.04191303388760392</v>
       </c>
       <c r="C14">
-        <v>-0.03196653278549113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02782542577438298</v>
+      </c>
+      <c r="D14">
+        <v>-0.003443692118790758</v>
+      </c>
+      <c r="E14">
+        <v>-0.03050747882103338</v>
+      </c>
+      <c r="F14">
+        <v>0.01551949717059783</v>
+      </c>
+      <c r="G14">
+        <v>-0.01596067826291674</v>
+      </c>
+      <c r="H14">
+        <v>0.06342470478028446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0390955008993125</v>
+        <v>-0.03983185811642941</v>
       </c>
       <c r="C15">
-        <v>-0.01068930085783963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002990874132195932</v>
+      </c>
+      <c r="D15">
+        <v>-0.003103500582789343</v>
+      </c>
+      <c r="E15">
+        <v>-0.04041982291672504</v>
+      </c>
+      <c r="F15">
+        <v>-0.004499447822037921</v>
+      </c>
+      <c r="G15">
+        <v>-0.0264078284506864</v>
+      </c>
+      <c r="H15">
+        <v>0.03984850674156572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06006885311509614</v>
+        <v>-0.06989222949006815</v>
       </c>
       <c r="C16">
-        <v>-0.04311679297286473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02791434516687129</v>
+      </c>
+      <c r="D16">
+        <v>-0.06290697405327486</v>
+      </c>
+      <c r="E16">
+        <v>-0.007733334262536469</v>
+      </c>
+      <c r="F16">
+        <v>0.02228015364768321</v>
+      </c>
+      <c r="G16">
+        <v>0.004336076329779393</v>
+      </c>
+      <c r="H16">
+        <v>0.06307761419791647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06436604635176069</v>
+        <v>-0.06354279371693621</v>
       </c>
       <c r="C20">
-        <v>-0.03303007803980482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01382896013546685</v>
+      </c>
+      <c r="D20">
+        <v>-0.0393879726994819</v>
+      </c>
+      <c r="E20">
+        <v>-0.03283451359392422</v>
+      </c>
+      <c r="F20">
+        <v>0.01805356604926043</v>
+      </c>
+      <c r="G20">
+        <v>-0.01279616855605782</v>
+      </c>
+      <c r="H20">
+        <v>0.05930338637299046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02296509971000936</v>
+        <v>-0.02383097598430254</v>
       </c>
       <c r="C21">
-        <v>0.002706283159592184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009675400039195288</v>
+      </c>
+      <c r="D21">
+        <v>-0.0291105608073634</v>
+      </c>
+      <c r="E21">
+        <v>-0.04010094330261527</v>
+      </c>
+      <c r="F21">
+        <v>-0.01291876530187672</v>
+      </c>
+      <c r="G21">
+        <v>-0.01187773392438427</v>
+      </c>
+      <c r="H21">
+        <v>-0.04219426566259595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0724571595008089</v>
+        <v>-0.06916987783066408</v>
       </c>
       <c r="C22">
-        <v>-0.0602207551400242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0398793814718582</v>
+      </c>
+      <c r="D22">
+        <v>-0.0704262437603755</v>
+      </c>
+      <c r="E22">
+        <v>-0.5685357608534002</v>
+      </c>
+      <c r="F22">
+        <v>-0.2447188857147518</v>
+      </c>
+      <c r="G22">
+        <v>0.04154910383328446</v>
+      </c>
+      <c r="H22">
+        <v>-0.1765840033282992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07345117775762915</v>
+        <v>-0.06978444275969814</v>
       </c>
       <c r="C23">
-        <v>-0.0591544874402286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03857833738569866</v>
+      </c>
+      <c r="D23">
+        <v>-0.07138339838970104</v>
+      </c>
+      <c r="E23">
+        <v>-0.5681170269686473</v>
+      </c>
+      <c r="F23">
+        <v>-0.2436088066945525</v>
+      </c>
+      <c r="G23">
+        <v>0.03992587206639352</v>
+      </c>
+      <c r="H23">
+        <v>-0.1720105130416403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07030994182547039</v>
+        <v>-0.07972819785073758</v>
       </c>
       <c r="C24">
-        <v>-0.05170939661709943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03342989133865847</v>
+      </c>
+      <c r="D24">
+        <v>-0.0594449102099801</v>
+      </c>
+      <c r="E24">
+        <v>-0.01852436398285079</v>
+      </c>
+      <c r="F24">
+        <v>0.03185995136393568</v>
+      </c>
+      <c r="G24">
+        <v>-0.006669438265017121</v>
+      </c>
+      <c r="H24">
+        <v>0.07208643602227266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07020575357510235</v>
+        <v>-0.07715878267468707</v>
       </c>
       <c r="C25">
-        <v>-0.05717732217291668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03786147605308961</v>
+      </c>
+      <c r="D25">
+        <v>-0.05179374534910288</v>
+      </c>
+      <c r="E25">
+        <v>-0.01946257701898544</v>
+      </c>
+      <c r="F25">
+        <v>0.02592687549723823</v>
+      </c>
+      <c r="G25">
+        <v>-0.01827598732775637</v>
+      </c>
+      <c r="H25">
+        <v>0.07420380023396685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04434425262759693</v>
+        <v>-0.04707689402459998</v>
       </c>
       <c r="C26">
-        <v>-0.009544429379355165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001174028277785052</v>
+      </c>
+      <c r="D26">
+        <v>-0.01810797201603678</v>
+      </c>
+      <c r="E26">
+        <v>-0.05224087100232973</v>
+      </c>
+      <c r="F26">
+        <v>0.02059031706036273</v>
+      </c>
+      <c r="G26">
+        <v>0.002923467640654526</v>
+      </c>
+      <c r="H26">
+        <v>0.06195114001137129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05471384234981645</v>
+        <v>-0.06456707635697465</v>
       </c>
       <c r="C28">
-        <v>-0.07386938565182896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.0823240011184397</v>
+      </c>
+      <c r="D28">
+        <v>0.3079285825864959</v>
+      </c>
+      <c r="E28">
+        <v>-0.02737370484608612</v>
+      </c>
+      <c r="F28">
+        <v>0.05568932114130105</v>
+      </c>
+      <c r="G28">
+        <v>-0.0233832156069678</v>
+      </c>
+      <c r="H28">
+        <v>-0.04146418613839582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04093905597387805</v>
+        <v>-0.0485646891489554</v>
       </c>
       <c r="C29">
-        <v>-0.03237858292782866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02576438309158167</v>
+      </c>
+      <c r="D29">
+        <v>-0.004023422283910824</v>
+      </c>
+      <c r="E29">
+        <v>-0.05504416646875415</v>
+      </c>
+      <c r="F29">
+        <v>0.001111357729030718</v>
+      </c>
+      <c r="G29">
+        <v>0.001031199082570093</v>
+      </c>
+      <c r="H29">
+        <v>0.08778520122674695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1267887284453434</v>
+        <v>-0.1330756622861619</v>
       </c>
       <c r="C30">
-        <v>-0.09643033074627023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0643694581147549</v>
+      </c>
+      <c r="D30">
+        <v>-0.07014636814795609</v>
+      </c>
+      <c r="E30">
+        <v>-0.0831586130266196</v>
+      </c>
+      <c r="F30">
+        <v>-0.01680679964536072</v>
+      </c>
+      <c r="G30">
+        <v>-0.07213301870490352</v>
+      </c>
+      <c r="H30">
+        <v>-0.01265972430533975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04226664774503669</v>
+        <v>-0.0485255318132438</v>
       </c>
       <c r="C31">
-        <v>-0.02031265680925429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01210019872577557</v>
+      </c>
+      <c r="D31">
+        <v>-0.02507201081567708</v>
+      </c>
+      <c r="E31">
+        <v>-0.02857292463005802</v>
+      </c>
+      <c r="F31">
+        <v>0.008607020021301814</v>
+      </c>
+      <c r="G31">
+        <v>0.02142391029258264</v>
+      </c>
+      <c r="H31">
+        <v>0.06735216172130909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0352013892595616</v>
+        <v>-0.03803596238743699</v>
       </c>
       <c r="C32">
-        <v>-0.02242031936345694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01606505795092916</v>
+      </c>
+      <c r="D32">
+        <v>-0.01190527767357513</v>
+      </c>
+      <c r="E32">
+        <v>-0.06850803123810426</v>
+      </c>
+      <c r="F32">
+        <v>-0.01976878882552796</v>
+      </c>
+      <c r="G32">
+        <v>-0.03311892400489665</v>
+      </c>
+      <c r="H32">
+        <v>0.06408169506805098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08104770873689914</v>
+        <v>-0.09514470916858134</v>
       </c>
       <c r="C33">
-        <v>-0.04445098698008436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02654699863040165</v>
+      </c>
+      <c r="D33">
+        <v>-0.05010567092506367</v>
+      </c>
+      <c r="E33">
+        <v>-0.01481219946314789</v>
+      </c>
+      <c r="F33">
+        <v>0.0010316072346294</v>
+      </c>
+      <c r="G33">
+        <v>0.009315564493541558</v>
+      </c>
+      <c r="H33">
+        <v>0.0777122215154854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05529366619939649</v>
+        <v>-0.06149567050350122</v>
       </c>
       <c r="C34">
-        <v>-0.02902309343745309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01354088313398822</v>
+      </c>
+      <c r="D34">
+        <v>-0.05454239887315227</v>
+      </c>
+      <c r="E34">
+        <v>-0.0107403313092171</v>
+      </c>
+      <c r="F34">
+        <v>0.01433572915611731</v>
+      </c>
+      <c r="G34">
+        <v>-0.005701804555782194</v>
+      </c>
+      <c r="H34">
+        <v>0.06100781140615896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03738153645944559</v>
+        <v>-0.04008728802361518</v>
       </c>
       <c r="C35">
-        <v>-0.00931274627673323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002212213465842164</v>
+      </c>
+      <c r="D35">
+        <v>-0.006372424948105791</v>
+      </c>
+      <c r="E35">
+        <v>-0.01828746907598485</v>
+      </c>
+      <c r="F35">
+        <v>-0.01544511303087336</v>
+      </c>
+      <c r="G35">
+        <v>0.009277525959208957</v>
+      </c>
+      <c r="H35">
+        <v>0.03158795093364345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02008009057478541</v>
+        <v>-0.02693191160412899</v>
       </c>
       <c r="C36">
-        <v>-0.01724968868770259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01358802361639034</v>
+      </c>
+      <c r="D36">
+        <v>-0.01215258541194395</v>
+      </c>
+      <c r="E36">
+        <v>-0.04480427266217513</v>
+      </c>
+      <c r="F36">
+        <v>0.0133039051239497</v>
+      </c>
+      <c r="G36">
+        <v>0.006789999176820695</v>
+      </c>
+      <c r="H36">
+        <v>0.05079328262190336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03966891897172226</v>
+        <v>-0.04314532750608543</v>
       </c>
       <c r="C38">
-        <v>-0.003653861559658157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002630940865078041</v>
+      </c>
+      <c r="D38">
+        <v>-0.01671743543642284</v>
+      </c>
+      <c r="E38">
+        <v>-0.05628134562519263</v>
+      </c>
+      <c r="F38">
+        <v>-0.02020634695690128</v>
+      </c>
+      <c r="G38">
+        <v>-0.01495873123275943</v>
+      </c>
+      <c r="H38">
+        <v>0.01807019873987348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09051008800153124</v>
+        <v>-0.1023330171918808</v>
       </c>
       <c r="C39">
-        <v>-0.07241884567292074</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04925561621907501</v>
+      </c>
+      <c r="D39">
+        <v>-0.06590727556437152</v>
+      </c>
+      <c r="E39">
+        <v>-0.0004190570465672733</v>
+      </c>
+      <c r="F39">
+        <v>0.009468998848305491</v>
+      </c>
+      <c r="G39">
+        <v>-0.03925757387042288</v>
+      </c>
+      <c r="H39">
+        <v>0.08001206937804586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07237272502726928</v>
+        <v>-0.0714821498763752</v>
       </c>
       <c r="C40">
-        <v>-0.04008811767286661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01949975906221506</v>
+      </c>
+      <c r="D40">
+        <v>-0.01265349631518404</v>
+      </c>
+      <c r="E40">
+        <v>-0.01932277855917666</v>
+      </c>
+      <c r="F40">
+        <v>-0.05284146769133104</v>
+      </c>
+      <c r="G40">
+        <v>-0.04366416590179896</v>
+      </c>
+      <c r="H40">
+        <v>-0.0782858441988353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04101830305718823</v>
+        <v>-0.04399530163606977</v>
       </c>
       <c r="C41">
-        <v>-0.006630810335141394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001483977858834287</v>
+      </c>
+      <c r="D41">
+        <v>-0.03436890521997939</v>
+      </c>
+      <c r="E41">
+        <v>-0.002869480639292351</v>
+      </c>
+      <c r="F41">
+        <v>-0.01498806191569914</v>
+      </c>
+      <c r="G41">
+        <v>-0.01380588988059784</v>
+      </c>
+      <c r="H41">
+        <v>0.03988720536104374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04618330063575461</v>
+        <v>-0.05735608247584831</v>
       </c>
       <c r="C43">
-        <v>-0.02541836706890117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01702847062653723</v>
+      </c>
+      <c r="D43">
+        <v>-0.02506585221502542</v>
+      </c>
+      <c r="E43">
+        <v>-0.0200753565677122</v>
+      </c>
+      <c r="F43">
+        <v>0.01093723255450629</v>
+      </c>
+      <c r="G43">
+        <v>0.01072416588219161</v>
+      </c>
+      <c r="H43">
+        <v>0.05520451780333288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09178222951217231</v>
+        <v>-0.0938462552286492</v>
       </c>
       <c r="C44">
-        <v>-0.0945116501614934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06507801611237353</v>
+      </c>
+      <c r="D44">
+        <v>-0.06141423743575591</v>
+      </c>
+      <c r="E44">
+        <v>-0.09741283321922699</v>
+      </c>
+      <c r="F44">
+        <v>0.03699695110755925</v>
+      </c>
+      <c r="G44">
+        <v>-0.02728769893708504</v>
+      </c>
+      <c r="H44">
+        <v>0.02266317253754771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02546109088326088</v>
+        <v>-0.03268199922123238</v>
       </c>
       <c r="C46">
-        <v>-0.01384051843818622</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01002068393937774</v>
+      </c>
+      <c r="D46">
+        <v>-0.02962608302233517</v>
+      </c>
+      <c r="E46">
+        <v>-0.02969429088770436</v>
+      </c>
+      <c r="F46">
+        <v>0.01587979915726004</v>
+      </c>
+      <c r="G46">
+        <v>-0.006957676763287575</v>
+      </c>
+      <c r="H46">
+        <v>0.03952284904836817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02856066018441955</v>
+        <v>-0.03715262691135815</v>
       </c>
       <c r="C47">
-        <v>-0.02501495579958621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.02050806694040875</v>
+      </c>
+      <c r="D47">
+        <v>-0.01181390511081498</v>
+      </c>
+      <c r="E47">
+        <v>-0.05390689372238498</v>
+      </c>
+      <c r="F47">
+        <v>0.003774773331805375</v>
+      </c>
+      <c r="G47">
+        <v>0.03891004795394214</v>
+      </c>
+      <c r="H47">
+        <v>0.02307453366749608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03116988433037442</v>
+        <v>-0.03676219361977206</v>
       </c>
       <c r="C48">
-        <v>-0.01603074442764174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.009268083067964101</v>
+      </c>
+      <c r="D48">
+        <v>-0.01977177618512891</v>
+      </c>
+      <c r="E48">
+        <v>-0.04270865185807496</v>
+      </c>
+      <c r="F48">
+        <v>-0.0006300551160997326</v>
+      </c>
+      <c r="G48">
+        <v>-0.01268720952577001</v>
+      </c>
+      <c r="H48">
+        <v>0.05146205128417233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.162245300041239</v>
+        <v>-0.1907328391724854</v>
       </c>
       <c r="C49">
-        <v>-0.06573289466436512</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03514739410377292</v>
+      </c>
+      <c r="D49">
+        <v>-0.03224128131094538</v>
+      </c>
+      <c r="E49">
+        <v>0.1425509815059791</v>
+      </c>
+      <c r="F49">
+        <v>0.07378215934310767</v>
+      </c>
+      <c r="G49">
+        <v>0.06638980338285969</v>
+      </c>
+      <c r="H49">
+        <v>-0.2480589247407911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03775863059118182</v>
+        <v>-0.04504147742371213</v>
       </c>
       <c r="C50">
-        <v>-0.02281516176008333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01581005881092204</v>
+      </c>
+      <c r="D50">
+        <v>-0.03024795592480688</v>
+      </c>
+      <c r="E50">
+        <v>-0.05365754153960051</v>
+      </c>
+      <c r="F50">
+        <v>0.008547736606838866</v>
+      </c>
+      <c r="G50">
+        <v>0.01703581719118747</v>
+      </c>
+      <c r="H50">
+        <v>0.06308099276449423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02521374452781735</v>
+        <v>-0.02895512647402597</v>
       </c>
       <c r="C51">
-        <v>-0.007345593911912423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.003461278498217648</v>
+      </c>
+      <c r="D51">
+        <v>-0.01584988927083302</v>
+      </c>
+      <c r="E51">
+        <v>-0.0157305080459157</v>
+      </c>
+      <c r="F51">
+        <v>0.0178399534416626</v>
+      </c>
+      <c r="G51">
+        <v>-0.003734941007583675</v>
+      </c>
+      <c r="H51">
+        <v>-0.005270025773178962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1523718978507231</v>
+        <v>-0.1625481702893785</v>
       </c>
       <c r="C53">
-        <v>-0.08440138219575866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05374888114588568</v>
+      </c>
+      <c r="D53">
+        <v>-0.01770319111953917</v>
+      </c>
+      <c r="E53">
+        <v>0.02318950438361391</v>
+      </c>
+      <c r="F53">
+        <v>0.01871622293299316</v>
+      </c>
+      <c r="G53">
+        <v>0.006245298079574675</v>
+      </c>
+      <c r="H53">
+        <v>0.1497149864593496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05583952338969367</v>
+        <v>-0.05781651116723927</v>
       </c>
       <c r="C54">
-        <v>-0.02426697097601669</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01197962411574596</v>
+      </c>
+      <c r="D54">
+        <v>-0.01569204965618887</v>
+      </c>
+      <c r="E54">
+        <v>-0.05026520771134792</v>
+      </c>
+      <c r="F54">
+        <v>0.004514687351813304</v>
+      </c>
+      <c r="G54">
+        <v>-0.01501284622919603</v>
+      </c>
+      <c r="H54">
+        <v>0.05900471241446432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1001792399444669</v>
+        <v>-0.1043071516524202</v>
       </c>
       <c r="C55">
-        <v>-0.0585763388641566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03669769449612652</v>
+      </c>
+      <c r="D55">
+        <v>-0.02246307788383875</v>
+      </c>
+      <c r="E55">
+        <v>-0.01707340767210464</v>
+      </c>
+      <c r="F55">
+        <v>0.01724371347011281</v>
+      </c>
+      <c r="G55">
+        <v>-0.005615017742337448</v>
+      </c>
+      <c r="H55">
+        <v>0.1381224266214339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.145589394716484</v>
+        <v>-0.1595494298592587</v>
       </c>
       <c r="C56">
-        <v>-0.09403764053132647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06431941919830228</v>
+      </c>
+      <c r="D56">
+        <v>-0.02067494666450517</v>
+      </c>
+      <c r="E56">
+        <v>0.02375399471339411</v>
+      </c>
+      <c r="F56">
+        <v>0.0362377614222067</v>
+      </c>
+      <c r="G56">
+        <v>0.01209897730465552</v>
+      </c>
+      <c r="H56">
+        <v>0.1545987869090795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1197640377428564</v>
+        <v>-0.09758215386355094</v>
       </c>
       <c r="C58">
-        <v>-0.00627202161397417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03356912793224939</v>
+      </c>
+      <c r="D58">
+        <v>-0.0395824666475961</v>
+      </c>
+      <c r="E58">
+        <v>-0.1660651210163138</v>
+      </c>
+      <c r="F58">
+        <v>-0.01744114424489592</v>
+      </c>
+      <c r="G58">
+        <v>0.05850232045172927</v>
+      </c>
+      <c r="H58">
+        <v>-0.1767038684445323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1157957849465737</v>
+        <v>-0.1382389651364821</v>
       </c>
       <c r="C59">
-        <v>-0.07908567345398043</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08527709319881346</v>
+      </c>
+      <c r="D59">
+        <v>0.3626162539557114</v>
+      </c>
+      <c r="E59">
+        <v>-0.02542245960888827</v>
+      </c>
+      <c r="F59">
+        <v>0.01357556474605379</v>
+      </c>
+      <c r="G59">
+        <v>0.04449373958600316</v>
+      </c>
+      <c r="H59">
+        <v>-0.004490287272382131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2026947154580951</v>
+        <v>-0.2314533744346039</v>
       </c>
       <c r="C60">
-        <v>-0.1068608132191441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06789284579406096</v>
+      </c>
+      <c r="D60">
+        <v>-0.04095970375655639</v>
+      </c>
+      <c r="E60">
+        <v>0.0903880459946529</v>
+      </c>
+      <c r="F60">
+        <v>0.07351485417286577</v>
+      </c>
+      <c r="G60">
+        <v>-0.01492608963266162</v>
+      </c>
+      <c r="H60">
+        <v>-0.1860774985481445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0787190808703231</v>
+        <v>-0.08749284863099756</v>
       </c>
       <c r="C61">
-        <v>-0.05139931288544654</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03467271905183933</v>
+      </c>
+      <c r="D61">
+        <v>-0.04444350569740053</v>
+      </c>
+      <c r="E61">
+        <v>0.0008267311768792472</v>
+      </c>
+      <c r="F61">
+        <v>0.004020805768840154</v>
+      </c>
+      <c r="G61">
+        <v>-0.001469887113616115</v>
+      </c>
+      <c r="H61">
+        <v>0.07651499887572476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1290638970386718</v>
+        <v>-0.1402645195108902</v>
       </c>
       <c r="C62">
-        <v>-0.06950466807868964</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04266162043046897</v>
+      </c>
+      <c r="D62">
+        <v>-0.02617443718328655</v>
+      </c>
+      <c r="E62">
+        <v>0.06096743155918221</v>
+      </c>
+      <c r="F62">
+        <v>0.02404320101923666</v>
+      </c>
+      <c r="G62">
+        <v>-0.02636763406141962</v>
+      </c>
+      <c r="H62">
+        <v>0.161349061144112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05093182721525982</v>
+        <v>-0.05014038596975407</v>
       </c>
       <c r="C63">
-        <v>-0.02629041498791015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01361558653905947</v>
+      </c>
+      <c r="D63">
+        <v>-0.01945752662452833</v>
+      </c>
+      <c r="E63">
+        <v>-0.05077192576682665</v>
+      </c>
+      <c r="F63">
+        <v>-0.01249875041937446</v>
+      </c>
+      <c r="G63">
+        <v>-0.03226534124297866</v>
+      </c>
+      <c r="H63">
+        <v>0.05958912557464973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1072340961112064</v>
+        <v>-0.1095485999338433</v>
       </c>
       <c r="C64">
-        <v>-0.02782124997142238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004341217800719357</v>
+      </c>
+      <c r="D64">
+        <v>-0.03969910985915752</v>
+      </c>
+      <c r="E64">
+        <v>-0.04353646869144317</v>
+      </c>
+      <c r="F64">
+        <v>0.04334705945804039</v>
+      </c>
+      <c r="G64">
+        <v>-0.04796645505491823</v>
+      </c>
+      <c r="H64">
+        <v>0.05828008078351428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1202698755759282</v>
+        <v>-0.1270090379456255</v>
       </c>
       <c r="C65">
-        <v>-0.06273651463513566</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03924141006128123</v>
+      </c>
+      <c r="D65">
+        <v>0.0001963480871412407</v>
+      </c>
+      <c r="E65">
+        <v>-0.009450774780182296</v>
+      </c>
+      <c r="F65">
+        <v>0.06712396033221356</v>
+      </c>
+      <c r="G65">
+        <v>-0.05370557026433199</v>
+      </c>
+      <c r="H65">
+        <v>-0.1267856975913707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1411965047407542</v>
+        <v>-0.1535868412563093</v>
       </c>
       <c r="C66">
-        <v>-0.07765827561656506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04464151534783034</v>
+      </c>
+      <c r="D66">
+        <v>-0.1018439839568901</v>
+      </c>
+      <c r="E66">
+        <v>0.02899328698798993</v>
+      </c>
+      <c r="F66">
+        <v>0.01979940775649896</v>
+      </c>
+      <c r="G66">
+        <v>-0.04741198337216796</v>
+      </c>
+      <c r="H66">
+        <v>0.158989291163259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07231168960638391</v>
+        <v>-0.08228178100920244</v>
       </c>
       <c r="C67">
-        <v>-0.01573056755924392</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004205354887759047</v>
+      </c>
+      <c r="D67">
+        <v>-0.0307009348589253</v>
+      </c>
+      <c r="E67">
+        <v>-0.02756786871471373</v>
+      </c>
+      <c r="F67">
+        <v>0.009577428143332747</v>
+      </c>
+      <c r="G67">
+        <v>0.007072033509334347</v>
+      </c>
+      <c r="H67">
+        <v>0.01692989540134543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05946283297332652</v>
+        <v>-0.05988450773156482</v>
       </c>
       <c r="C68">
-        <v>-0.05089065636605037</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05623844563117691</v>
+      </c>
+      <c r="D68">
+        <v>0.2694784805772457</v>
+      </c>
+      <c r="E68">
+        <v>-0.03769536653086381</v>
+      </c>
+      <c r="F68">
+        <v>0.01399931525701437</v>
+      </c>
+      <c r="G68">
+        <v>0.01590391909714933</v>
+      </c>
+      <c r="H68">
+        <v>0.008117504099413869</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05326404435582197</v>
+        <v>-0.05305307165795085</v>
       </c>
       <c r="C69">
-        <v>-0.02029304484847678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005426374664808806</v>
+      </c>
+      <c r="D69">
+        <v>-0.01686749289234923</v>
+      </c>
+      <c r="E69">
+        <v>-0.02546486926415902</v>
+      </c>
+      <c r="F69">
+        <v>-0.00923787873725801</v>
+      </c>
+      <c r="G69">
+        <v>0.0125674612099431</v>
+      </c>
+      <c r="H69">
+        <v>0.05352364180791781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005114257878573236</v>
+        <v>-0.02683041232570783</v>
       </c>
       <c r="C70">
-        <v>0.004353334414753289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0007183827253618803</v>
+      </c>
+      <c r="D70">
+        <v>-0.001039986884007204</v>
+      </c>
+      <c r="E70">
+        <v>0.02434544566700875</v>
+      </c>
+      <c r="F70">
+        <v>0.03011611818098568</v>
+      </c>
+      <c r="G70">
+        <v>0.02096989383100064</v>
+      </c>
+      <c r="H70">
+        <v>-0.05252655625370566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06108764389863707</v>
+        <v>-0.06331765627292747</v>
       </c>
       <c r="C71">
-        <v>-0.05058188208497337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05843154928493047</v>
+      </c>
+      <c r="D71">
+        <v>0.2971936373201826</v>
+      </c>
+      <c r="E71">
+        <v>-0.0325094983659414</v>
+      </c>
+      <c r="F71">
+        <v>0.04354080605899013</v>
+      </c>
+      <c r="G71">
+        <v>0.002945003397959439</v>
+      </c>
+      <c r="H71">
+        <v>0.01837342546365203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1375198297993021</v>
+        <v>-0.1479550170265461</v>
       </c>
       <c r="C72">
-        <v>-0.06544085167496948</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03712068045363522</v>
+      </c>
+      <c r="D72">
+        <v>0.0104029827699504</v>
+      </c>
+      <c r="E72">
+        <v>0.1237685764412737</v>
+      </c>
+      <c r="F72">
+        <v>-0.1515143776095334</v>
+      </c>
+      <c r="G72">
+        <v>-0.1143159378391129</v>
+      </c>
+      <c r="H72">
+        <v>0.02397348736141498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2689434331291817</v>
+        <v>-0.2862580188742058</v>
       </c>
       <c r="C73">
-        <v>-0.1164375357065093</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.04906277582204686</v>
+      </c>
+      <c r="D73">
+        <v>-0.1034266565645686</v>
+      </c>
+      <c r="E73">
+        <v>0.2048458859928596</v>
+      </c>
+      <c r="F73">
+        <v>0.1131784452223377</v>
+      </c>
+      <c r="G73">
+        <v>0.1905544319620059</v>
+      </c>
+      <c r="H73">
+        <v>-0.475778322283094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08016330416083534</v>
+        <v>-0.09236066473659253</v>
       </c>
       <c r="C74">
-        <v>-0.07981552414602103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05948800195577153</v>
+      </c>
+      <c r="D74">
+        <v>-0.03121840426525375</v>
+      </c>
+      <c r="E74">
+        <v>0.00637734545957106</v>
+      </c>
+      <c r="F74">
+        <v>-0.007340662048779705</v>
+      </c>
+      <c r="G74">
+        <v>0.03593526086228534</v>
+      </c>
+      <c r="H74">
+        <v>0.1197233356246041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0951636998446355</v>
+        <v>-0.1009775483813477</v>
       </c>
       <c r="C75">
-        <v>-0.05700525626031296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.0298910251335348</v>
+      </c>
+      <c r="D75">
+        <v>-0.01134906630364267</v>
+      </c>
+      <c r="E75">
+        <v>-0.008512531333568276</v>
+      </c>
+      <c r="F75">
+        <v>0.03081980778819688</v>
+      </c>
+      <c r="G75">
+        <v>0.01194279246754516</v>
+      </c>
+      <c r="H75">
+        <v>0.1101953685256448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1290593771054465</v>
+        <v>-0.1399269034246619</v>
       </c>
       <c r="C76">
-        <v>-0.08670595874670753</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05693054579250328</v>
+      </c>
+      <c r="D76">
+        <v>-0.04931388007266206</v>
+      </c>
+      <c r="E76">
+        <v>-0.03323956379775952</v>
+      </c>
+      <c r="F76">
+        <v>0.04486904830041671</v>
+      </c>
+      <c r="G76">
+        <v>-0.00180085241555143</v>
+      </c>
+      <c r="H76">
+        <v>0.1608120002751925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1190996626581874</v>
+        <v>-0.1136230665529888</v>
       </c>
       <c r="C77">
-        <v>-0.0248393385615951</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.003908496751554923</v>
+      </c>
+      <c r="D77">
+        <v>-0.01311258356095431</v>
+      </c>
+      <c r="E77">
+        <v>-0.007163517957583943</v>
+      </c>
+      <c r="F77">
+        <v>0.1556891215425149</v>
+      </c>
+      <c r="G77">
+        <v>-0.8832536568243148</v>
+      </c>
+      <c r="H77">
+        <v>-0.1951333645887476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09528332917543528</v>
+        <v>-0.1350398066831955</v>
       </c>
       <c r="C78">
-        <v>-0.04194004002919008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03393026891431034</v>
+      </c>
+      <c r="D78">
+        <v>-0.0969228362456416</v>
+      </c>
+      <c r="E78">
+        <v>-0.06029190985820004</v>
+      </c>
+      <c r="F78">
+        <v>0.01957477425341223</v>
+      </c>
+      <c r="G78">
+        <v>-0.0513656577591286</v>
+      </c>
+      <c r="H78">
+        <v>-0.06007648016942613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1462035611257434</v>
+        <v>-0.1517792194072181</v>
       </c>
       <c r="C79">
-        <v>-0.08357263904230712</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04677950081559535</v>
+      </c>
+      <c r="D79">
+        <v>-0.02660337439033781</v>
+      </c>
+      <c r="E79">
+        <v>0.01125701478141129</v>
+      </c>
+      <c r="F79">
+        <v>0.01757011993472814</v>
+      </c>
+      <c r="G79">
+        <v>0.02533319144551233</v>
+      </c>
+      <c r="H79">
+        <v>0.166048118710968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04397322677913622</v>
+        <v>-0.04219996134876099</v>
       </c>
       <c r="C80">
-        <v>-0.0166944301000949</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006105438379097417</v>
+      </c>
+      <c r="D80">
+        <v>-0.02081347407556871</v>
+      </c>
+      <c r="E80">
+        <v>0.005426647586880834</v>
+      </c>
+      <c r="F80">
+        <v>-0.008838608398938897</v>
+      </c>
+      <c r="G80">
+        <v>0.03339032680033015</v>
+      </c>
+      <c r="H80">
+        <v>0.04344482795064813</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1169669144842532</v>
+        <v>-0.1210713236043367</v>
       </c>
       <c r="C81">
-        <v>-0.06810347839524605</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03779529168240348</v>
+      </c>
+      <c r="D81">
+        <v>-0.02171653239543097</v>
+      </c>
+      <c r="E81">
+        <v>-0.02765442362885165</v>
+      </c>
+      <c r="F81">
+        <v>0.01492402206149937</v>
+      </c>
+      <c r="G81">
+        <v>0.04185498521141434</v>
+      </c>
+      <c r="H81">
+        <v>0.1524283103531983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1283505240822665</v>
+        <v>-0.1302017053757434</v>
       </c>
       <c r="C82">
-        <v>-0.08097551188351848</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.04912575573807865</v>
+      </c>
+      <c r="D82">
+        <v>-0.02739323020612622</v>
+      </c>
+      <c r="E82">
+        <v>0.01028016197429915</v>
+      </c>
+      <c r="F82">
+        <v>0.05666007643823037</v>
+      </c>
+      <c r="G82">
+        <v>0.03557257108490636</v>
+      </c>
+      <c r="H82">
+        <v>0.1912425341282446</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08002279325400841</v>
+        <v>-0.08807063871852779</v>
       </c>
       <c r="C83">
-        <v>0.001238197371547697</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01917494161543728</v>
+      </c>
+      <c r="D83">
+        <v>-0.03939760476951022</v>
+      </c>
+      <c r="E83">
+        <v>-0.02658570168221245</v>
+      </c>
+      <c r="F83">
+        <v>0.04535137147915723</v>
+      </c>
+      <c r="G83">
+        <v>0.0901192969388734</v>
+      </c>
+      <c r="H83">
+        <v>-0.05887918518234283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02830701350079743</v>
+        <v>-0.03897406237297632</v>
       </c>
       <c r="C84">
-        <v>-0.02576039615599581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02059294732805553</v>
+      </c>
+      <c r="D84">
+        <v>-0.02905331387662142</v>
+      </c>
+      <c r="E84">
+        <v>-0.02295176467583632</v>
+      </c>
+      <c r="F84">
+        <v>-0.05249812712393834</v>
+      </c>
+      <c r="G84">
+        <v>0.05525011193816758</v>
+      </c>
+      <c r="H84">
+        <v>0.02378111012577535</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1178460704997707</v>
+        <v>-0.1196131843104498</v>
       </c>
       <c r="C85">
-        <v>-0.06310863120828922</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03190852578241878</v>
+      </c>
+      <c r="D85">
+        <v>-0.02429782978648098</v>
+      </c>
+      <c r="E85">
+        <v>-0.02170562621006757</v>
+      </c>
+      <c r="F85">
+        <v>0.0405711132125425</v>
+      </c>
+      <c r="G85">
+        <v>0.01390385963664255</v>
+      </c>
+      <c r="H85">
+        <v>0.1474743040045843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05071726946741054</v>
+        <v>-0.05902489381445718</v>
       </c>
       <c r="C86">
-        <v>-0.02986798998171483</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01849176189201378</v>
+      </c>
+      <c r="D86">
+        <v>-0.02137022922532702</v>
+      </c>
+      <c r="E86">
+        <v>-0.06191175164462683</v>
+      </c>
+      <c r="F86">
+        <v>0.03056928233536085</v>
+      </c>
+      <c r="G86">
+        <v>0.01335578173934211</v>
+      </c>
+      <c r="H86">
+        <v>0.0007363723843249027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1204359552234808</v>
+        <v>-0.1218188392409003</v>
       </c>
       <c r="C87">
-        <v>-0.07184707959386487</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03566917745711569</v>
+      </c>
+      <c r="D87">
+        <v>-0.07757344869878162</v>
+      </c>
+      <c r="E87">
+        <v>-0.02148177105395819</v>
+      </c>
+      <c r="F87">
+        <v>-0.003861102673565417</v>
+      </c>
+      <c r="G87">
+        <v>-0.1096970238883428</v>
+      </c>
+      <c r="H87">
+        <v>-0.02635064414952352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05339626158815124</v>
+        <v>-0.06082554329481113</v>
       </c>
       <c r="C88">
-        <v>-0.0302490541498226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01897733269722784</v>
+      </c>
+      <c r="D88">
+        <v>-0.02817908306478095</v>
+      </c>
+      <c r="E88">
+        <v>-0.0203081146817522</v>
+      </c>
+      <c r="F88">
+        <v>0.008335193047401705</v>
+      </c>
+      <c r="G88">
+        <v>-0.01279397891431491</v>
+      </c>
+      <c r="H88">
+        <v>0.05628790619655538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08190476825703542</v>
+        <v>-0.09423682308942252</v>
       </c>
       <c r="C89">
-        <v>-0.06699999000053665</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07670383520701528</v>
+      </c>
+      <c r="D89">
+        <v>0.3426439851815956</v>
+      </c>
+      <c r="E89">
+        <v>-0.07141369490624132</v>
+      </c>
+      <c r="F89">
+        <v>0.07880234179848372</v>
+      </c>
+      <c r="G89">
+        <v>0.02110662922224822</v>
+      </c>
+      <c r="H89">
+        <v>0.009204831305147392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07403765161586504</v>
+        <v>-0.0810444680982112</v>
       </c>
       <c r="C90">
-        <v>-0.05959954470529594</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06665060722320421</v>
+      </c>
+      <c r="D90">
+        <v>0.3105230434286742</v>
+      </c>
+      <c r="E90">
+        <v>-0.06094366340106827</v>
+      </c>
+      <c r="F90">
+        <v>-0.0003955625158772051</v>
+      </c>
+      <c r="G90">
+        <v>0.003582524171622613</v>
+      </c>
+      <c r="H90">
+        <v>0.01322526934570864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08439112103758543</v>
+        <v>-0.08974645800983179</v>
       </c>
       <c r="C91">
-        <v>-0.05577276917781078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03315267128955551</v>
+      </c>
+      <c r="D91">
+        <v>-0.03032145024435457</v>
+      </c>
+      <c r="E91">
+        <v>-0.01440813627989371</v>
+      </c>
+      <c r="F91">
+        <v>0.004299645032349521</v>
+      </c>
+      <c r="G91">
+        <v>0.04830418775527388</v>
+      </c>
+      <c r="H91">
+        <v>0.07771032693888584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0747031530778364</v>
+        <v>-0.08149501024104155</v>
       </c>
       <c r="C92">
-        <v>-0.07298371358287507</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08064182843971</v>
+      </c>
+      <c r="D92">
+        <v>0.3405673058380695</v>
+      </c>
+      <c r="E92">
+        <v>-0.04896835198838153</v>
+      </c>
+      <c r="F92">
+        <v>0.03473036117996676</v>
+      </c>
+      <c r="G92">
+        <v>-0.003363500364676273</v>
+      </c>
+      <c r="H92">
+        <v>0.01985046916543282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06655954519252116</v>
+        <v>-0.07946821337017995</v>
       </c>
       <c r="C93">
-        <v>-0.06543742551135988</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07767651949835265</v>
+      </c>
+      <c r="D93">
+        <v>0.3073543150873806</v>
+      </c>
+      <c r="E93">
+        <v>-0.03766539559757894</v>
+      </c>
+      <c r="F93">
+        <v>0.04022109621333458</v>
+      </c>
+      <c r="G93">
+        <v>-0.008164347889861272</v>
+      </c>
+      <c r="H93">
+        <v>-0.007548445383094244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1333340054102816</v>
+        <v>-0.1277471516266014</v>
       </c>
       <c r="C94">
-        <v>-0.06098547493200045</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02260645714407742</v>
+      </c>
+      <c r="D94">
+        <v>-0.04582288045629332</v>
+      </c>
+      <c r="E94">
+        <v>0.004330099207460852</v>
+      </c>
+      <c r="F94">
+        <v>0.02234632077051988</v>
+      </c>
+      <c r="G94">
+        <v>0.04378883685984789</v>
+      </c>
+      <c r="H94">
+        <v>0.1000897697896405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1187303603352692</v>
+        <v>-0.1289354835933606</v>
       </c>
       <c r="C95">
-        <v>-0.03846973023544269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009501464483867753</v>
+      </c>
+      <c r="D95">
+        <v>-0.05985968126678625</v>
+      </c>
+      <c r="E95">
+        <v>-0.01245460492525968</v>
+      </c>
+      <c r="F95">
+        <v>0.04745200794132857</v>
+      </c>
+      <c r="G95">
+        <v>0.01758428831908474</v>
+      </c>
+      <c r="H95">
+        <v>-0.03037857923855165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2010137985436413</v>
+        <v>-0.2093825130672148</v>
       </c>
       <c r="C97">
-        <v>-0.04480211155146972</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.004653602341036235</v>
+      </c>
+      <c r="D97">
+        <v>0.08857071117250931</v>
+      </c>
+      <c r="E97">
+        <v>0.3284604877608367</v>
+      </c>
+      <c r="F97">
+        <v>-0.8587022394205117</v>
+      </c>
+      <c r="G97">
+        <v>-0.1066593481280094</v>
+      </c>
+      <c r="H97">
+        <v>0.007856062602355253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.244885141078182</v>
+        <v>-0.2742390112385264</v>
       </c>
       <c r="C98">
-        <v>-0.08539397231192045</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03596325028626845</v>
+      </c>
+      <c r="D98">
+        <v>-0.06486460723437153</v>
+      </c>
+      <c r="E98">
+        <v>0.1561472853154813</v>
+      </c>
+      <c r="F98">
+        <v>0.07382203519870852</v>
+      </c>
+      <c r="G98">
+        <v>0.2749394789082168</v>
+      </c>
+      <c r="H98">
+        <v>-0.2465421219506813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4664451503194828</v>
+        <v>-0.2848315466421341</v>
       </c>
       <c r="C99">
-        <v>0.8695483354462501</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9364657452669928</v>
+      </c>
+      <c r="D99">
+        <v>0.124681775252125</v>
+      </c>
+      <c r="E99">
+        <v>-0.06727009638998185</v>
+      </c>
+      <c r="F99">
+        <v>0.04196593738471508</v>
+      </c>
+      <c r="G99">
+        <v>0.01545849227178261</v>
+      </c>
+      <c r="H99">
+        <v>0.06308004589846078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04100464843891917</v>
+        <v>-0.04866559770372542</v>
       </c>
       <c r="C101">
-        <v>-0.03237063503268035</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02584754591110967</v>
+      </c>
+      <c r="D101">
+        <v>-0.004563977403561386</v>
+      </c>
+      <c r="E101">
+        <v>-0.05410505640651477</v>
+      </c>
+      <c r="F101">
+        <v>0.0006389681025003012</v>
+      </c>
+      <c r="G101">
+        <v>0.001175016587156379</v>
+      </c>
+      <c r="H101">
+        <v>0.08705653459796954</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
